--- a/lab 5.xlsx
+++ b/lab 5.xlsx
@@ -18,15 +18,106 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>ПОДСТРОЧНИК</t>
+  </si>
+  <si>
+    <t>ПОДТЕКАНИЕ</t>
+  </si>
+  <si>
+    <t>ПОДЪЕСАУЛ</t>
+  </si>
+  <si>
+    <t>ПОЗИТИВИЗМ</t>
+  </si>
+  <si>
+    <t>ПОКАШЛИВАНИЕ</t>
+  </si>
+  <si>
+    <t>ПОЛБА</t>
+  </si>
+  <si>
+    <t>ПОЛЕМИСТ</t>
+  </si>
+  <si>
+    <t>ПОЛЕННИЦА</t>
+  </si>
+  <si>
+    <t>ПОЛИМЕРИЗАЦИЯ</t>
+  </si>
+  <si>
+    <t>ПОЛИПРОПИЛЕН</t>
+  </si>
+  <si>
+    <t>ПОЛИЭТИЛЕН</t>
+  </si>
+  <si>
+    <t>ПОЛЛИНОЗ</t>
+  </si>
+  <si>
+    <t>ПОЛОВИЦА</t>
+  </si>
+  <si>
+    <t>ПОЛОСАТИК</t>
+  </si>
+  <si>
+    <t>ПРОРАЩИВАНИЕ</t>
+  </si>
+  <si>
+    <t>ПРОСЕДЬ</t>
+  </si>
+  <si>
+    <t>ПРОТЕЗИСТ</t>
+  </si>
+  <si>
+    <t>ПРОТОКОЛИРОВАНИЕ</t>
+  </si>
+  <si>
+    <t>ПРОТУБЕРАНЕЦ</t>
+  </si>
+  <si>
+    <t>ПРОТЯЖНОСТЬ</t>
+  </si>
+  <si>
+    <t>ПРОФСОЮЗНИК</t>
+  </si>
+  <si>
+    <t>ПРОХОДИМОСТЬ</t>
+  </si>
+  <si>
+    <t>ПРУСС</t>
+  </si>
+  <si>
+    <t>ПОДВОЙ</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,15 +136,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +214,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +254,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +294,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +326,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +476,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>